--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="238" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E42A28-E80E-476E-BE4B-68DCBC1B97B8}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D310CB0-849C-49B2-A0F5-899989AB125D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>DATA</t>
   </si>
@@ -73,6 +73,59 @@
   </si>
   <si>
     <t>Demonstração da criação de uma classe junto com os campos de instancia, construtores, metodos getters e setters, passando por encapsulamento e herança.</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Entendendo como ler codigo pré-escrito por outros desenvolvedores, entendo conceitos de herança junto com o uso do Array e ArrayList.</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JavaBank: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Entendendo o uso e a criação de classes imutaveis.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bakery:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entendendo os caso de uso de uma interface e oque ela é capaz de realizar.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.3</t>
   </si>
 </sst>
 </file>
@@ -82,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +156,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -135,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -160,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,14 +754,49 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="29.25">
+      <c r="A11" s="2">
+        <v>45459</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="4">
         <f>ROW() - ROW($D$10)</f>
         <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25">
+      <c r="A12" s="2">
+        <v>45459</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <f>ROW() - ROW($D$10)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="263" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D310CB0-849C-49B2-A0F5-899989AB125D}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958426DE-2B87-4C41-955F-E5FD4CE54357}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>DATA</t>
   </si>
@@ -127,6 +127,15 @@
   <si>
     <t>2.3</t>
   </si>
+  <si>
+    <t>Entendendo o uso de classes abstratas, invocação de metodo virtual, utilização do operador instanceof para comparar tipos de objetos e conceitos de upward e downward casts.</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Entendendo como fazer uso de execeções para construir aplicações mais seguras e confiaveis, fazer uso do bloco try-catch e try-with-resources, entender o uso de asserções ao debuggar um codigo.</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +183,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -201,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -229,6 +245,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,11 +595,11 @@
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="87.5703125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25">
+    <row r="2" spans="1:6" ht="29.25">
       <c r="A2" s="2">
         <v>45458</v>
       </c>
@@ -615,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>45458</v>
       </c>
@@ -633,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>45458</v>
       </c>
@@ -651,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>45458</v>
       </c>
@@ -669,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>45458</v>
       </c>
@@ -687,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25">
+    <row r="7" spans="1:6" ht="29.25">
       <c r="A7" s="2">
         <v>45458</v>
       </c>
@@ -705,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>45458</v>
       </c>
@@ -723,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.25">
+    <row r="9" spans="1:6" ht="29.25">
       <c r="A9" s="2">
         <v>45458</v>
       </c>
@@ -741,7 +760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1">
+    <row r="10" spans="1:6" s="8" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29.25">
+    <row r="11" spans="1:6" ht="29.25">
       <c r="A11" s="2">
         <v>45459</v>
       </c>
@@ -776,7 +795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25">
+    <row r="12" spans="1:6" ht="29.25">
       <c r="A12" s="2">
         <v>45459</v>
       </c>
@@ -794,9 +813,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" ht="29.25">
+      <c r="A13" s="2">
+        <v>45460</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.46944444444444444</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="D13" s="4">
+        <f>ROW() - ROW($D$10)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="29.25">
+      <c r="A14" s="2">
+        <v>45460</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <f>ROW() - ROW($D$10)</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="287" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958426DE-2B87-4C41-955F-E5FD4CE54357}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A57F77F-8982-4EF6-B7D9-D5D86C4CB155}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>DATA</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Entendendo como fazer uso de execeções para construir aplicações mais seguras e confiaveis, fazer uso do bloco try-catch e try-with-resources, entender o uso de asserções ao debuggar um codigo.</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Entendendo como utilizar enumerações, tipos genericos, tipos curingas e criação de classes e metodos genericos.</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -247,6 +253,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -583,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -850,6 +859,41 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:6" s="11" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29.25">
+      <c r="A16" s="2">
+        <v>45461</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <f>ROW() - ROW($D$15)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A57F77F-8982-4EF6-B7D9-D5D86C4CB155}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8486F556-8A3C-465E-87EB-24BF037B20A4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -257,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,9 +595,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -894,6 +897,9 @@
         <v>23</v>
       </c>
     </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="306" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8486F556-8A3C-465E-87EB-24BF037B20A4}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B324202-EF73-44AB-979B-E4380C6A4AB6}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>DATA</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Entendendo como utilizar enumerações, tipos genericos, tipos curingas e criação de classes e metodos genericos.</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Entendendo o uso de generics e estruturas de dados como Matrizes, ArrayLists e Sets.</t>
   </si>
 </sst>
 </file>
@@ -597,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -897,7 +903,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4">
+        <f>ROW() - ROW($D$15)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="E19" s="12"/>
     </row>
   </sheetData>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="318" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B324202-EF73-44AB-979B-E4380C6A4AB6}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4788E0DF-CFE9-47CA-9D62-293A53F5231F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>DATA</t>
   </si>
@@ -148,6 +148,12 @@
   <si>
     <t>Entendendo o uso de generics e estruturas de dados como Matrizes, ArrayLists e Sets.</t>
   </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Atividade sobre estruturas de dados como Lists, Queue, Deques, LinkedList e Stacks e suas implementações concretas, junto com o uso da interface Comparable que define um criterio de comparação entre objetos da mesma classe.</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,13 +201,6 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -258,14 +257,8 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,7 +610,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.25">
+    <row r="2" spans="1:5" ht="29.25">
       <c r="A2" s="2">
         <v>45458</v>
       </c>
@@ -652,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>45458</v>
       </c>
@@ -670,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>45458</v>
       </c>
@@ -688,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>45458</v>
       </c>
@@ -706,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>45458</v>
       </c>
@@ -724,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29.25">
+    <row r="7" spans="1:5" ht="29.25">
       <c r="A7" s="2">
         <v>45458</v>
       </c>
@@ -742,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>45458</v>
       </c>
@@ -760,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.25">
+    <row r="9" spans="1:5" ht="29.25">
       <c r="A9" s="2">
         <v>45458</v>
       </c>
@@ -778,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1">
+    <row r="10" spans="1:5" s="8" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.25">
+    <row r="11" spans="1:5" ht="29.25">
       <c r="A11" s="2">
         <v>45459</v>
       </c>
@@ -813,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29.25">
+    <row r="12" spans="1:5" ht="29.25">
       <c r="A12" s="2">
         <v>45459</v>
       </c>
@@ -831,7 +824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29.25">
+    <row r="13" spans="1:5" ht="29.25">
       <c r="A13" s="2">
         <v>45460</v>
       </c>
@@ -848,9 +841,8 @@
       <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="29.25">
+    </row>
+    <row r="14" spans="1:5" ht="29.25">
       <c r="A14" s="2">
         <v>45460</v>
       </c>
@@ -868,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1">
+    <row r="15" spans="1:5" s="10" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29.25">
+    <row r="16" spans="1:5" ht="29.25">
       <c r="A16" s="2">
         <v>45461</v>
       </c>
@@ -921,11 +913,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" s="12"/>
+    <row r="18" spans="1:5" ht="43.5">
+      <c r="A18" s="2">
+        <v>45465</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4">
+        <f>ROW() - ROW($D$15)</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="344" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4788E0DF-CFE9-47CA-9D62-293A53F5231F}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{689ADD83-9622-4B1F-AB6E-818789064DEB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -228,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -259,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,9 +604,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -931,6 +941,9 @@
         <v>27</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="345" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{689ADD83-9622-4B1F-AB6E-818789064DEB}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD7344B-D8B4-4C52-BD06-4C625CBD4D25}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>DATA</t>
   </si>
@@ -154,6 +154,12 @@
   <si>
     <t>Atividade sobre estruturas de dados como Lists, Queue, Deques, LinkedList e Stacks e suas implementações concretas, junto com o uso da interface Comparable que define um criterio de comparação entre objetos da mesma classe.</t>
   </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Entender algoritmos de classificação e procura, ordenação de arrays junto com noções de Big O Notation para analise de desempenho de algoritmos.</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +207,6 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -266,9 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +603,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -941,8 +937,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="E19" s="11"/>
+    <row r="19" spans="1:5" ht="29.25">
+      <c r="A19" s="2">
+        <v>45466</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.97291666666666665</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4">
+        <f>ROW() - ROW($D$15)</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="355" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD7344B-D8B4-4C52-BD06-4C625CBD4D25}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD8396E0-751F-479F-A590-A5EBD5238F56}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>DATA</t>
   </si>
@@ -160,6 +160,12 @@
   <si>
     <t>Entender algoritmos de classificação e procura, ordenação de arrays junto com noções de Big O Notation para analise de desempenho de algoritmos.</t>
   </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Detalhando o uso e tratamento de um objeto String e o uso da classe StringBuilder e seus métodos.</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +213,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -234,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -264,6 +277,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -600,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:XFD1048576"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,6 +971,44 @@
         <v>29</v>
       </c>
     </row>
+    <row r="20" spans="1:5" s="10" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <f>ROW() - ROW($D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="367" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD8396E0-751F-479F-A590-A5EBD5238F56}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4990200-C905-4BAF-94B3-84425389ECAC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>DATA</t>
   </si>
@@ -166,6 +166,12 @@
   <si>
     <t>Detalhando o uso e tratamento de um objeto String e o uso da classe StringBuilder e seus métodos.</t>
   </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Detalhando os métodos e usos de expreções regulares, tambem chamadas de REGEX, no tratamento e manipulação de Strings.</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,13 +219,6 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -247,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -277,9 +276,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -616,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,8 +1002,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="D25" s="11"/>
+    <row r="22" spans="1:5" ht="29.25">
+      <c r="A22" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4">
+        <f>ROW() - ROW($D$20)</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Controle de versão.xlsx
+++ b/Controle de versão.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27823"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="382" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4990200-C905-4BAF-94B3-84425389ECAC}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF7F6A25-9DFF-4B09-8540-3B4E68581885}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
